--- a/Texts/Сюжетные сцены/Глава 4.xlsx
+++ b/Texts/Сюжетные сцены/Глава 4.xlsx
@@ -956,9 +956,6 @@
     <t xml:space="preserve"> Вы, лентяи! Вы вообще что-либо\nделали, кроме как отлынивали?</t>
   </si>
   <si>
-    <t xml:space="preserve"> Не смейте обвинять кого-либо в\nсвоих ошибках!</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Работа стражами это командная\nработа, так?</t>
   </si>
   <si>
@@ -1046,9 +1043,6 @@
     <t xml:space="preserve"> Âú, ìåîóÿé! Âú âïïáþå œóï-ìéáï\näåìàìé, ëñïíå ëàë ïóìúîéâàìé?</t>
   </si>
   <si>
-    <t xml:space="preserve"> Îå òíåêóå ïáâéîÿóû ëïãï-ìéáï â\nòâïéö ïšéáëàö!</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Ñàáïóà òóñàçàíé üóï ëïíàîäîàÿ\nñàáïóà, óàë?</t>
   </si>
   <si>
@@ -1338,6 +1332,12 @@
   </si>
   <si>
     <t xml:space="preserve"> Äà, óú éíååšû ðñàâï îà îàò\nèìéóûòÿ, îï...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Не смей обвинять кого-либо в\nсвоих ошибках!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îå òíåê ïáâéîÿóû ëïãï-ìéáï â\nòâïéö ïšéáëàö!</t>
   </si>
 </sst>
 </file>
@@ -1983,7 +1983,7 @@
   <dimension ref="A1:H136"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3060,7 +3060,7 @@
         <v>306</v>
       </c>
       <c r="F61" s="18" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -3078,7 +3078,7 @@
         <v>307</v>
       </c>
       <c r="F62" s="22" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -3094,7 +3094,7 @@
         <v>308</v>
       </c>
       <c r="F63" s="22" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -3126,7 +3126,7 @@
         <v>309</v>
       </c>
       <c r="F65" s="22" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -3155,10 +3155,10 @@
         <v>225</v>
       </c>
       <c r="E67" s="21" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F67" s="22" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -3203,10 +3203,10 @@
         <v>228</v>
       </c>
       <c r="E70" s="21" t="s">
-        <v>310</v>
+        <v>436</v>
       </c>
       <c r="F70" s="22" t="s">
-        <v>340</v>
+        <v>437</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -3219,10 +3219,10 @@
         <v>229</v>
       </c>
       <c r="E71" s="21" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F71" s="22" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -3235,10 +3235,10 @@
         <v>230</v>
       </c>
       <c r="E72" s="21" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F72" s="22" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -3303,10 +3303,10 @@
         <v>234</v>
       </c>
       <c r="E76" s="21" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F76" s="22" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -3340,7 +3340,7 @@
         <v>306</v>
       </c>
       <c r="F78" s="22" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -3356,7 +3356,7 @@
         <v>307</v>
       </c>
       <c r="F79" s="22" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -3369,10 +3369,10 @@
         <v>237</v>
       </c>
       <c r="E80" s="21" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F80" s="22" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
@@ -3437,10 +3437,10 @@
         <v>241</v>
       </c>
       <c r="E84" s="21" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F84" s="22" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
@@ -3453,10 +3453,10 @@
         <v>242</v>
       </c>
       <c r="E85" s="21" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F85" s="22" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -3469,10 +3469,10 @@
         <v>243</v>
       </c>
       <c r="E86" s="21" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F86" s="22" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -3487,10 +3487,10 @@
         <v>244</v>
       </c>
       <c r="E87" s="21" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F87" s="22" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
@@ -3503,10 +3503,10 @@
         <v>245</v>
       </c>
       <c r="E88" s="21" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F88" s="22" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -3522,7 +3522,7 @@
         <v>307</v>
       </c>
       <c r="F89" s="22" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -3535,10 +3535,10 @@
         <v>246</v>
       </c>
       <c r="E90" s="21" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F90" s="22" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
@@ -3603,10 +3603,10 @@
         <v>251</v>
       </c>
       <c r="E94" s="21" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F94" s="22" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -3619,10 +3619,10 @@
         <v>252</v>
       </c>
       <c r="E95" s="21" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F95" s="22" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
@@ -3635,10 +3635,10 @@
         <v>253</v>
       </c>
       <c r="E96" s="21" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F96" s="22" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -3651,10 +3651,10 @@
         <v>254</v>
       </c>
       <c r="E97" s="21" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F97" s="22" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -3667,10 +3667,10 @@
         <v>255</v>
       </c>
       <c r="E98" s="21" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F98" s="22" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
@@ -3704,7 +3704,7 @@
         <v>306</v>
       </c>
       <c r="F100" s="22" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -3720,7 +3720,7 @@
         <v>307</v>
       </c>
       <c r="F101" s="22" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -3733,10 +3733,10 @@
         <v>258</v>
       </c>
       <c r="E102" s="21" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F102" s="22" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -3749,10 +3749,10 @@
         <v>259</v>
       </c>
       <c r="E103" s="21" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F103" s="22" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
@@ -3801,26 +3801,26 @@
         <v>263</v>
       </c>
       <c r="E106" s="21" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F106" s="22" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A107" s="19"/>
       <c r="B107" s="20"/>
       <c r="C107" s="20">
-        <v>945</v>
+        <v>919</v>
       </c>
       <c r="D107" s="21" t="s">
         <v>264</v>
       </c>
       <c r="E107" s="21" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F107" s="22" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -3833,10 +3833,10 @@
         <v>265</v>
       </c>
       <c r="E108" s="21" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F108" s="22" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
@@ -3849,10 +3849,10 @@
         <v>266</v>
       </c>
       <c r="E109" s="21" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F109" s="22" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -3865,10 +3865,10 @@
         <v>267</v>
       </c>
       <c r="E110" s="21" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F110" s="22" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -3881,10 +3881,10 @@
         <v>268</v>
       </c>
       <c r="E111" s="21" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F111" s="22" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
@@ -3897,10 +3897,10 @@
         <v>269</v>
       </c>
       <c r="E112" s="21" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F112" s="22" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -3913,10 +3913,10 @@
         <v>270</v>
       </c>
       <c r="E113" s="21" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F113" s="22" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -3929,10 +3929,10 @@
         <v>271</v>
       </c>
       <c r="E114" s="21" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F114" s="22" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3955,56 +3955,56 @@
     </row>
     <row r="116" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A116" s="15" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B116" s="16" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C116" s="16">
         <v>8</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E116" s="17" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F116" s="18" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="19" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="20">
         <v>13</v>
       </c>
       <c r="D117" s="21" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E117" s="21" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F117" s="22" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A118" s="45"/>
       <c r="B118" s="44"/>
       <c r="C118" s="20" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D118" s="21" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E118" s="21" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F118" s="22" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
@@ -4016,13 +4016,13 @@
         <v>106</v>
       </c>
       <c r="D119" s="21" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E119" s="21" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="F119" s="22" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
@@ -4032,13 +4032,13 @@
         <v>113</v>
       </c>
       <c r="D120" s="21" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E120" s="21" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F120" s="22" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
@@ -4048,13 +4048,13 @@
         <v>117</v>
       </c>
       <c r="D121" s="21" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E121" s="21" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F121" s="22" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
@@ -4064,13 +4064,13 @@
         <v>121</v>
       </c>
       <c r="D122" s="21" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E122" s="21" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F122" s="22" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
@@ -4082,13 +4082,13 @@
         <v>146</v>
       </c>
       <c r="D123" s="21" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E123" s="21" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="F123" s="22" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
@@ -4098,13 +4098,13 @@
         <v>170</v>
       </c>
       <c r="D124" s="21" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E124" s="21" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F124" s="22" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
@@ -4114,13 +4114,13 @@
         <v>174</v>
       </c>
       <c r="D125" s="21" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E125" s="21" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="F125" s="22" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -4130,13 +4130,13 @@
         <v>178</v>
       </c>
       <c r="D126" s="21" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E126" s="21" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F126" s="22" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
@@ -4146,13 +4146,13 @@
         <v>188</v>
       </c>
       <c r="D127" s="21" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E127" s="21" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F127" s="22" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
@@ -4162,13 +4162,13 @@
         <v>192</v>
       </c>
       <c r="D128" s="21" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E128" s="21" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F128" s="22" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
@@ -4178,13 +4178,13 @@
         <v>196</v>
       </c>
       <c r="D129" s="21" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E129" s="21" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F129" s="22" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4194,31 +4194,31 @@
         <v>200</v>
       </c>
       <c r="D130" s="30" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E130" s="30" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F130" s="31" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A131" s="43" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B131" s="16"/>
       <c r="C131" s="16">
         <v>19</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E131" s="17" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="F131" s="18" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
@@ -4228,13 +4228,13 @@
         <v>41</v>
       </c>
       <c r="D132" s="21" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E132" s="21" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F132" s="22" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
@@ -4244,13 +4244,13 @@
         <v>45</v>
       </c>
       <c r="D133" s="21" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E133" s="21" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="F133" s="22" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
@@ -4260,45 +4260,45 @@
         <v>49</v>
       </c>
       <c r="D134" s="21" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E134" s="21" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F134" s="22" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="23"/>
       <c r="B135" s="25"/>
       <c r="C135" s="20" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D135" s="21" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E135" s="21" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F135" s="22" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="136" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A136" s="27"/>
       <c r="B136" s="28"/>
       <c r="C136" s="29" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D136" s="30" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E136" s="30" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F136" s="31" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
   </sheetData>
